--- a/Admin/BOM.xlsx
+++ b/Admin/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. UNIVERSITY\University\EEE4022S\PAR-Measurement\Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. University\5th Year\EEE4022S\PAR-Measurement\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E6F408-918B-42D6-9EB4-DFA19F28CA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7678AAF-7CFB-49CB-91E3-39AD3B2B8A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Part</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Light PCB</t>
   </si>
   <si>
-    <t>M2 nuts/bolts</t>
-  </si>
-  <si>
     <t>Container</t>
   </si>
   <si>
@@ -65,16 +62,45 @@
   </si>
   <si>
     <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>https://www.robotics.org.za/W19564?search=colour%20sensor</t>
+  </si>
+  <si>
+    <t>MicroRobotics</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>M2 nuts/bolts (25 Pack)</t>
+  </si>
+  <si>
+    <t>Takealot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,13 +123,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,18 +413,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,50 +435,88 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+      <c r="B6">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{9BFD0BA2-48E4-415D-BD58-0730E5141ACF}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{E2C4E732-1310-44E5-84BF-3DEB0561C832}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{FAB710DC-D825-475E-9161-F72E65CA0F7A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -458,9 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF63C99-1D28-4605-8E5B-F6F1FD3A5F5F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Admin/BOM.xlsx
+++ b/Admin/BOM.xlsx
@@ -5,28 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. University\5th Year\EEE4022S\PAR-Measurement\Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. UNIVERSITY\University\EEE4022S\PAR-Measurement\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7678AAF-7CFB-49CB-91E3-39AD3B2B8A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF561E34-DF0E-4842-AB4D-F0F5395E015C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Part</t>
   </si>
@@ -83,6 +94,12 @@
   </si>
   <si>
     <t>Takealot</t>
+  </si>
+  <si>
+    <t>Ordered?</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -411,20 +428,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,13 +457,16 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>285</v>
+        <v>327.75</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -457,11 +477,17 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>479.47</v>
+      </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -469,10 +495,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4">
+        <v>328.42</v>
+      </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -480,26 +509,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -509,6 +544,15 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>1247.6400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +571,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
